--- a/מערכת סמסטר א.xlsx
+++ b/מערכת סמסטר א.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liat\OneDrive - Mivdeket Oman LTD\ציונט\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaniv\Desktop\FullStack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA4B3F9-683B-432D-8A36-EA26B4D4E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3B29C-9307-429C-A6E9-8AA57801D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36FCF59B-CEBC-415A-B9E8-B30AE935F29B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36FCF59B-CEBC-415A-B9E8-B30AE935F29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -736,23 +736,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B226151E-0EBC-47C3-B379-5BCDECD681C8}">
   <dimension ref="G8:Q21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="7.08203125" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.4140625" customWidth="1"/>
-    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.4140625" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="7:17" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>1</v>
       </c>
@@ -810,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>2</v>
       </c>
@@ -845,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>4</v>
       </c>
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="7:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>6</v>
       </c>
@@ -985,7 +985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>7</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>8</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="7:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>9</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="7:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>10</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="7:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>11</v>
       </c>
